--- a/$TCOM.xlsx
+++ b/$TCOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA2D500-D4E7-45A1-AC64-1491CF3C82A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E687D960-A14E-4DF6-9124-B86DE932A88C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F33AF04B-C9D6-4944-A70E-DBAA932093D6}"/>
   </bookViews>
@@ -21,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="115">
   <si>
     <t>$TCOM</t>
   </si>
@@ -344,6 +335,42 @@
   </si>
   <si>
     <t>ADR for 9961.HK</t>
+  </si>
+  <si>
+    <t>FY25</t>
+  </si>
+  <si>
+    <t>FY26</t>
+  </si>
+  <si>
+    <t>FY27</t>
+  </si>
+  <si>
+    <t>FY28</t>
+  </si>
+  <si>
+    <t>FY29</t>
+  </si>
+  <si>
+    <t>FY30</t>
+  </si>
+  <si>
+    <t>Maturity Rate</t>
+  </si>
+  <si>
+    <t>Discount Rate</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Total Value</t>
+  </si>
+  <si>
+    <t>Per Share</t>
+  </si>
+  <si>
+    <t>Upside</t>
   </si>
 </sst>
 </file>
@@ -351,7 +378,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0\x"/>
+    <numFmt numFmtId="164" formatCode="0.0\x"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -530,19 +557,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -583,33 +601,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -620,18 +618,56 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -679,6 +715,56 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6486525" y="19050"/>
+          <a:ext cx="0" cy="13592175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{685B968E-9581-4289-ABE2-AD62AD5D4146}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11972925" y="0"/>
           <a:ext cx="0" cy="13592175"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1005,7 +1091,7 @@
   <dimension ref="A2:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1027,201 +1113,201 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>61.32</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="15">
         <f>+'Financial Model'!I28</f>
         <v>652.71980099999996</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="15">
         <f>+C6*C7</f>
         <v>40024.778197319996</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="15">
         <f>+'Financial Model'!I70</f>
         <v>17533</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="15">
         <f>+'Financial Model'!I71</f>
         <v>6517</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="15">
         <f>+C9-C10</f>
         <v>11016</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="18">
         <f>+C8-C11</f>
         <v>29008.778197319996</v>
       </c>
-      <c r="D12" s="20"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="30"/>
+      <c r="D16" s="40"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="30"/>
+      <c r="D17" s="40"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="30"/>
+      <c r="D18" s="40"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="36"/>
+      <c r="D19" s="38"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="30"/>
+      <c r="D23" s="40"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="39">
         <v>1999</v>
       </c>
-      <c r="D24" s="30"/>
+      <c r="D24" s="40"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="40"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="28"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="28"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="28"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="42"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="32">
+      <c r="D29" s="25">
         <v>45615</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="29" t="s">
         <v>80</v>
       </c>
       <c r="C30" s="43" t="s">
@@ -1230,14 +1316,14 @@
       <c r="D30" s="44"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="32"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="23" t="s">
         <v>82</v>
       </c>
       <c r="C34" s="33">
@@ -1247,7 +1333,7 @@
       <c r="D34" s="34"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="23" t="s">
         <v>83</v>
       </c>
       <c r="C35" s="33">
@@ -1257,35 +1343,35 @@
       <c r="D35" s="34"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="41">
+      <c r="C36" s="35">
         <f>+C6/SUM('Financial Model'!F27:I27)</f>
         <v>17.64997981692456</v>
       </c>
-      <c r="D36" s="42"/>
+      <c r="D36" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C24:D24"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C30:D30" r:id="rId1" display="Link" xr:uid="{7CDE3D63-B097-4372-8A55-C922D2246330}"/>
@@ -1296,1983 +1382,2523 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA982157-EAF6-4063-8AFB-18E34F30F98E}">
-  <dimension ref="B1:S76"/>
+  <dimension ref="B1:CH76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
+      <selection pane="bottomRight" activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="27" width="9.140625" style="1"/>
+    <col min="28" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="14" t="s">
+    <row r="1" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="9"/>
-      <c r="C2" s="13">
+      <c r="T1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="2:25" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="6"/>
+      <c r="C2" s="10">
         <v>45016</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="10">
         <v>45107</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="10">
         <v>45199</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="10">
         <f>+R2</f>
         <v>45291</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="10">
         <v>45016</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="10">
         <v>45473</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="10">
         <v>45565</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="10">
         <v>43465</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="10">
         <v>43830</v>
       </c>
-      <c r="O2" s="13">
+      <c r="O2" s="10">
         <v>44196</v>
       </c>
-      <c r="P2" s="13">
+      <c r="P2" s="10">
         <v>44561</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="Q2" s="10">
         <v>44926</v>
       </c>
-      <c r="R2" s="13">
+      <c r="R2" s="10">
         <v>45291</v>
       </c>
     </row>
-    <row r="3" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="9"/>
-      <c r="C3" s="12">
+    <row r="3" spans="2:25" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="6"/>
+      <c r="C3" s="9">
         <v>45450</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="9">
         <v>45539</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="9">
         <v>45616</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="9">
         <v>45432</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="9">
         <v>45530</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="9">
         <v>45615</v>
       </c>
     </row>
-    <row r="4" spans="2:19" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="37" t="s">
+    <row r="4" spans="2:25" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="27">
         <v>507</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="27">
         <v>591</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="27">
         <v>766</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="27">
         <f>+R4-SUM(C4:E4)</f>
         <v>567</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="27">
         <v>623</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="27">
         <v>707</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="27">
         <v>969</v>
       </c>
-      <c r="M4" s="38">
+      <c r="M4" s="27">
         <v>1684</v>
       </c>
-      <c r="N4" s="38">
+      <c r="N4" s="27">
         <v>1941</v>
       </c>
-      <c r="O4" s="38">
+      <c r="O4" s="27">
         <v>1093</v>
       </c>
-      <c r="P4" s="38">
+      <c r="P4" s="27">
         <v>1279</v>
       </c>
-      <c r="Q4" s="38">
+      <c r="Q4" s="27">
         <v>1073</v>
       </c>
-      <c r="R4" s="38">
+      <c r="R4" s="27">
         <v>2431</v>
       </c>
     </row>
-    <row r="5" spans="2:19" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="37" t="s">
+    <row r="5" spans="2:25" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="27">
         <v>605</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="27">
         <v>664</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="27">
         <v>736</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="27">
         <f t="shared" ref="F5:F8" si="0">+R5-SUM(C5:E5)</f>
         <v>593</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="27">
         <v>692</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="27">
         <v>670</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="27">
         <v>805</v>
       </c>
-      <c r="M5" s="38">
+      <c r="M5" s="27">
         <v>1883</v>
       </c>
-      <c r="N5" s="38">
+      <c r="N5" s="27">
         <v>2004</v>
       </c>
-      <c r="O5" s="38">
+      <c r="O5" s="27">
         <v>1095</v>
       </c>
-      <c r="P5" s="38">
+      <c r="P5" s="27">
         <v>1084</v>
       </c>
-      <c r="Q5" s="38">
+      <c r="Q5" s="27">
         <v>1197</v>
       </c>
-      <c r="R5" s="38">
+      <c r="R5" s="27">
         <v>2598</v>
       </c>
     </row>
-    <row r="6" spans="2:19" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="37" t="s">
+    <row r="6" spans="2:25" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="27">
         <v>56</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="27">
         <v>100</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="27">
         <v>182</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="27">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="27">
         <v>122</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="27">
         <v>141</v>
       </c>
-      <c r="I6" s="38">
+      <c r="I6" s="27">
         <v>222</v>
       </c>
-      <c r="M6" s="38">
+      <c r="M6" s="27">
         <v>549</v>
       </c>
-      <c r="N6" s="38">
+      <c r="N6" s="27">
         <v>651</v>
       </c>
-      <c r="O6" s="38">
+      <c r="O6" s="27">
         <v>190</v>
       </c>
-      <c r="P6" s="38">
+      <c r="P6" s="27">
         <v>173</v>
       </c>
-      <c r="Q6" s="38">
+      <c r="Q6" s="27">
         <v>116</v>
       </c>
-      <c r="R6" s="38">
+      <c r="R6" s="27">
         <v>442</v>
       </c>
     </row>
-    <row r="7" spans="2:19" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="37" t="s">
+    <row r="7" spans="2:25" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="27">
         <v>65</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="27">
         <v>81</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="27">
         <v>81</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="27">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="27">
         <v>71</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H7" s="27">
         <v>87</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="27">
         <v>93</v>
       </c>
-      <c r="M7" s="38">
+      <c r="M7" s="27">
         <v>143</v>
       </c>
-      <c r="N7" s="38">
+      <c r="N7" s="27">
         <v>180</v>
       </c>
-      <c r="O7" s="38">
+      <c r="O7" s="27">
         <v>135</v>
       </c>
-      <c r="P7" s="38">
+      <c r="P7" s="27">
         <v>211</v>
       </c>
-      <c r="Q7" s="38">
+      <c r="Q7" s="27">
         <v>157</v>
       </c>
-      <c r="R7" s="38">
+      <c r="R7" s="27">
         <v>317</v>
       </c>
     </row>
-    <row r="8" spans="2:19" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="37" t="s">
+    <row r="8" spans="2:25" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="27">
         <v>108</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="27">
         <v>118</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="27">
         <v>120</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="27">
         <f t="shared" si="0"/>
         <v>142</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="27">
         <v>143</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="27">
         <v>154</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="27">
         <v>176</v>
       </c>
-      <c r="M8" s="38">
+      <c r="M8" s="27">
         <v>265</v>
       </c>
-      <c r="N8" s="38">
+      <c r="N8" s="27">
         <v>353</v>
       </c>
-      <c r="O8" s="38">
+      <c r="O8" s="27">
         <v>296</v>
       </c>
-      <c r="P8" s="38">
+      <c r="P8" s="27">
         <v>396</v>
       </c>
-      <c r="Q8" s="38">
+      <c r="Q8" s="27">
         <v>366</v>
       </c>
-      <c r="R8" s="38">
+      <c r="R8" s="27">
         <v>488</v>
       </c>
     </row>
-    <row r="9" spans="2:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="2:25" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="13">
         <f t="shared" ref="C9:D9" si="1">+SUM(C4:C8)</f>
         <v>1341</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="13">
         <f t="shared" si="1"/>
         <v>1554</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="13">
         <f>+SUM(E4:E8)</f>
         <v>1885</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="13">
         <f>+SUM(F4:F8)</f>
         <v>1496</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="13">
         <f>+SUM(G4:G8)</f>
         <v>1651</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="13">
         <f>+SUM(H4:H8)</f>
         <v>1759</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="13">
         <f>+SUM(I4:I8)</f>
         <v>2265</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="13">
         <f t="shared" ref="M9" si="2">+SUM(M4:M8)</f>
         <v>4524</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="13">
         <f t="shared" ref="N9" si="3">+SUM(N4:N8)</f>
         <v>5129</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="13">
         <f t="shared" ref="O9:Q9" si="4">+SUM(O4:O8)</f>
         <v>2809</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P9" s="13">
         <f t="shared" si="4"/>
         <v>3143</v>
       </c>
-      <c r="Q9" s="16">
+      <c r="Q9" s="13">
         <f t="shared" si="4"/>
         <v>2909</v>
       </c>
-      <c r="R9" s="16">
+      <c r="R9" s="13">
         <f>+SUM(R4:R8)</f>
         <v>6276</v>
       </c>
     </row>
-    <row r="10" spans="2:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="15" t="s">
+    <row r="10" spans="2:25" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="12">
         <v>2</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="12">
         <v>2</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="12">
         <v>2</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="12">
         <f>+R10-SUM(C10:E10)</f>
         <v>1</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="12">
         <v>2</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="12">
         <v>2</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="12">
         <v>4</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="12">
         <v>20</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N10" s="12">
         <v>7</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O10" s="12">
         <v>2</v>
       </c>
-      <c r="P10" s="15">
+      <c r="P10" s="12">
         <v>1</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="Q10" s="12">
         <v>2</v>
       </c>
-      <c r="R10" s="15">
+      <c r="R10" s="12">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="16" t="s">
+    <row r="11" spans="2:25" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="13">
         <f t="shared" ref="C11:F11" si="5">+C9-C10</f>
         <v>1339</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="13">
         <f t="shared" si="5"/>
         <v>1552</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="13">
         <f t="shared" si="5"/>
         <v>1883</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="13">
         <f t="shared" si="5"/>
         <v>1495</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="13">
         <f>+G9-G10</f>
         <v>1649</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="13">
         <f>+H9-H10</f>
         <v>1757</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="13">
         <f>+I9-I10</f>
         <v>2261</v>
       </c>
-      <c r="M11" s="16">
+      <c r="J11" s="13">
+        <f>+I11*1.05</f>
+        <v>2374.0500000000002</v>
+      </c>
+      <c r="M11" s="13">
         <f t="shared" ref="M11" si="6">+M9-M10</f>
         <v>4504</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="13">
         <f t="shared" ref="N11" si="7">+N9-N10</f>
         <v>5122</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O11" s="13">
         <f t="shared" ref="O11:Q11" si="8">+O9-O10</f>
         <v>2807</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11" s="13">
         <f t="shared" si="8"/>
         <v>3142</v>
       </c>
-      <c r="Q11" s="16">
+      <c r="Q11" s="13">
         <f t="shared" si="8"/>
         <v>2907</v>
       </c>
-      <c r="R11" s="16">
+      <c r="R11" s="13">
         <f>+R9-R10</f>
         <v>6269</v>
       </c>
-    </row>
-    <row r="12" spans="2:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="15" t="s">
+      <c r="S11" s="13">
+        <f>+SUM(G11:J11)</f>
+        <v>8041.05</v>
+      </c>
+      <c r="T11" s="13">
+        <f>+S11*(1+T30)</f>
+        <v>10051.3125</v>
+      </c>
+      <c r="U11" s="13">
+        <f>+T11*(1+U30)</f>
+        <v>12564.140625</v>
+      </c>
+      <c r="V11" s="13">
+        <f>+U11*(1+V30)</f>
+        <v>15453.89296875</v>
+      </c>
+      <c r="W11" s="13">
+        <f>+V11*(1+W30)</f>
+        <v>18544.6715625</v>
+      </c>
+      <c r="X11" s="13">
+        <f>+W11*(1+X30)</f>
+        <v>21326.372296874997</v>
+      </c>
+      <c r="Y11" s="13">
+        <f>+X11*(1+Y30)</f>
+        <v>23459.009526562499</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="12">
         <v>238</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="12">
         <v>277</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="12">
         <v>338</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="12">
         <f>+R12-SUM(C12:E12)</f>
         <v>291</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="12">
         <v>310</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="12">
         <v>318</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="12">
         <v>399</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="12">
         <v>920</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="12">
         <v>1059</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="12">
         <v>618</v>
       </c>
-      <c r="P12" s="15">
+      <c r="P12" s="12">
         <v>721</v>
       </c>
-      <c r="Q12" s="15">
+      <c r="Q12" s="12">
         <v>654</v>
       </c>
-      <c r="R12" s="15">
+      <c r="R12" s="12">
         <v>1144</v>
       </c>
-    </row>
-    <row r="13" spans="2:19" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="16" t="s">
+      <c r="S12" s="12">
+        <f>S11-S13</f>
+        <v>1447.3890000000001</v>
+      </c>
+      <c r="T12" s="12">
+        <f t="shared" ref="T12:Y12" si="9">T11-T13</f>
+        <v>1809.2362499999999</v>
+      </c>
+      <c r="U12" s="12">
+        <f t="shared" si="9"/>
+        <v>2261.5453125000004</v>
+      </c>
+      <c r="V12" s="12">
+        <f t="shared" si="9"/>
+        <v>2781.700734375001</v>
+      </c>
+      <c r="W12" s="12">
+        <f t="shared" si="9"/>
+        <v>3338.0408812500009</v>
+      </c>
+      <c r="X12" s="12">
+        <f t="shared" si="9"/>
+        <v>3838.7470134374998</v>
+      </c>
+      <c r="Y12" s="12">
+        <f t="shared" si="9"/>
+        <v>4222.6217147812495</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="16">
-        <f t="shared" ref="C13:F13" si="9">+C11-C12</f>
+      <c r="C13" s="13">
+        <f t="shared" ref="C13:F13" si="10">+C11-C12</f>
         <v>1101</v>
       </c>
-      <c r="D13" s="16">
-        <f t="shared" si="9"/>
+      <c r="D13" s="13">
+        <f t="shared" si="10"/>
         <v>1275</v>
       </c>
-      <c r="E13" s="16">
-        <f t="shared" si="9"/>
+      <c r="E13" s="13">
+        <f t="shared" si="10"/>
         <v>1545</v>
       </c>
-      <c r="F13" s="16">
-        <f t="shared" si="9"/>
+      <c r="F13" s="13">
+        <f t="shared" si="10"/>
         <v>1204</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="13">
         <f>+G11-G12</f>
         <v>1339</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="13">
         <f>+H11-H12</f>
         <v>1439</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="13">
         <f>+I11-I12</f>
         <v>1862</v>
       </c>
-      <c r="M13" s="16">
-        <f t="shared" ref="M13" si="10">+M11-M12</f>
+      <c r="M13" s="13">
+        <f t="shared" ref="M13" si="11">+M11-M12</f>
         <v>3584</v>
       </c>
-      <c r="N13" s="16">
-        <f t="shared" ref="N13" si="11">+N11-N12</f>
+      <c r="N13" s="13">
+        <f t="shared" ref="N13" si="12">+N11-N12</f>
         <v>4063</v>
       </c>
-      <c r="O13" s="16">
-        <f t="shared" ref="O13:Q13" si="12">+O11-O12</f>
+      <c r="O13" s="13">
+        <f t="shared" ref="O13:Q13" si="13">+O11-O12</f>
         <v>2189</v>
       </c>
-      <c r="P13" s="16">
-        <f t="shared" si="12"/>
+      <c r="P13" s="13">
+        <f t="shared" si="13"/>
         <v>2421</v>
       </c>
-      <c r="Q13" s="16">
-        <f t="shared" si="12"/>
+      <c r="Q13" s="13">
+        <f t="shared" si="13"/>
         <v>2253</v>
       </c>
-      <c r="R13" s="16">
+      <c r="R13" s="13">
         <f>+R11-R12</f>
         <v>5125</v>
       </c>
-    </row>
-    <row r="14" spans="2:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="15" t="s">
+      <c r="S13" s="13">
+        <f>+S11*S33</f>
+        <v>6593.6610000000001</v>
+      </c>
+      <c r="T13" s="13">
+        <f>+T11*T33</f>
+        <v>8242.0762500000001</v>
+      </c>
+      <c r="U13" s="13">
+        <f>+U11*U33</f>
+        <v>10302.5953125</v>
+      </c>
+      <c r="V13" s="13">
+        <f>+V11*V33</f>
+        <v>12672.192234374999</v>
+      </c>
+      <c r="W13" s="13">
+        <f>+W11*W33</f>
+        <v>15206.630681249999</v>
+      </c>
+      <c r="X13" s="13">
+        <f>+X11*X33</f>
+        <v>17487.625283437497</v>
+      </c>
+      <c r="Y13" s="13">
+        <f>+Y11*Y33</f>
+        <v>19236.387811781249</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="12">
         <v>389</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="12">
         <v>407</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="12">
         <v>490</v>
       </c>
-      <c r="F14" s="15">
-        <f t="shared" ref="F14:F16" si="13">+R14-SUM(C14:E14)</f>
+      <c r="F14" s="12">
+        <f t="shared" ref="F14:F16" si="14">+R14-SUM(C14:E14)</f>
         <v>421</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="12">
         <v>431</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="12">
         <v>412</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="12">
         <v>519</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="12">
         <v>1399</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="12">
         <v>1533</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O14" s="12">
         <v>1175</v>
       </c>
-      <c r="P14" s="15">
+      <c r="P14" s="12">
         <v>1411</v>
       </c>
-      <c r="Q14" s="15">
+      <c r="Q14" s="12">
         <v>1209</v>
       </c>
-      <c r="R14" s="15">
+      <c r="R14" s="12">
         <v>1707</v>
       </c>
     </row>
-    <row r="15" spans="2:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="15" t="s">
+    <row r="15" spans="2:25" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="12">
         <v>256</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="12">
         <v>325</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="12">
         <v>378</v>
       </c>
-      <c r="F15" s="15">
-        <f t="shared" si="13"/>
+      <c r="F15" s="12">
+        <f t="shared" si="14"/>
         <v>337</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="12">
         <v>320</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="12">
         <v>390</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="12">
         <v>482</v>
       </c>
-      <c r="M15" s="15">
+      <c r="M15" s="12">
         <v>1396</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N15" s="12">
         <v>1335</v>
       </c>
-      <c r="O15" s="15">
+      <c r="O15" s="12">
         <v>675</v>
       </c>
-      <c r="P15" s="15">
+      <c r="P15" s="12">
         <v>772</v>
       </c>
-      <c r="Q15" s="15">
+      <c r="Q15" s="12">
         <v>616</v>
       </c>
-      <c r="R15" s="15">
+      <c r="R15" s="12">
         <v>1296</v>
       </c>
     </row>
-    <row r="16" spans="2:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="15" t="s">
+    <row r="16" spans="2:25" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="12">
         <v>130</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="12">
         <v>132</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="12">
         <v>141</v>
       </c>
-      <c r="F16" s="15">
-        <f t="shared" si="13"/>
+      <c r="F16" s="12">
+        <f t="shared" si="14"/>
         <v>124</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="12">
         <v>129</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="12">
         <v>148</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="12">
         <v>149</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="12">
         <v>410</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N16" s="12">
         <v>472</v>
       </c>
-      <c r="O16" s="15">
+      <c r="O16" s="12">
         <v>557</v>
       </c>
-      <c r="P16" s="15">
+      <c r="P16" s="12">
         <v>459</v>
       </c>
-      <c r="Q16" s="15">
+      <c r="Q16" s="12">
         <v>413</v>
       </c>
-      <c r="R16" s="15">
+      <c r="R16" s="12">
         <v>527</v>
       </c>
     </row>
-    <row r="17" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="16" t="s">
+    <row r="17" spans="2:86" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="16">
-        <f t="shared" ref="C17:F17" si="14">+C13-SUM(C14:C16)</f>
+      <c r="C17" s="13">
+        <f t="shared" ref="C17:F17" si="15">+C13-SUM(C14:C16)</f>
         <v>326</v>
       </c>
-      <c r="D17" s="16">
-        <f t="shared" si="14"/>
+      <c r="D17" s="13">
+        <f t="shared" si="15"/>
         <v>411</v>
       </c>
-      <c r="E17" s="16">
-        <f t="shared" si="14"/>
+      <c r="E17" s="13">
+        <f t="shared" si="15"/>
         <v>536</v>
       </c>
-      <c r="F17" s="16">
-        <f t="shared" si="14"/>
+      <c r="F17" s="13">
+        <f t="shared" si="15"/>
         <v>322</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="13">
         <f>+G13-SUM(G14:G16)</f>
         <v>459</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="13">
         <f>+H13-SUM(H14:H16)</f>
         <v>489</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="13">
         <f>+I13-SUM(I14:I16)</f>
         <v>712</v>
       </c>
-      <c r="M17" s="16">
-        <f t="shared" ref="M17" si="15">+M13-SUM(M14:M16)</f>
+      <c r="M17" s="13">
+        <f t="shared" ref="M17" si="16">+M13-SUM(M14:M16)</f>
         <v>379</v>
       </c>
-      <c r="N17" s="16">
-        <f t="shared" ref="N17" si="16">+N13-SUM(N14:N16)</f>
+      <c r="N17" s="13">
+        <f t="shared" ref="N17" si="17">+N13-SUM(N14:N16)</f>
         <v>723</v>
       </c>
-      <c r="O17" s="16">
-        <f t="shared" ref="O17:Q17" si="17">+O13-SUM(O14:O16)</f>
+      <c r="O17" s="13">
+        <f t="shared" ref="O17:Q17" si="18">+O13-SUM(O14:O16)</f>
         <v>-218</v>
       </c>
-      <c r="P17" s="16">
-        <f t="shared" si="17"/>
+      <c r="P17" s="13">
+        <f t="shared" si="18"/>
         <v>-221</v>
       </c>
-      <c r="Q17" s="16">
-        <f t="shared" si="17"/>
+      <c r="Q17" s="13">
+        <f t="shared" si="18"/>
         <v>15</v>
       </c>
-      <c r="R17" s="16">
+      <c r="R17" s="13">
         <f>+R13-SUM(R14:R16)</f>
         <v>1595</v>
       </c>
-    </row>
-    <row r="18" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="15" t="s">
+      <c r="S17" s="13">
+        <f>+S13*S34</f>
+        <v>1978.0982999999999</v>
+      </c>
+      <c r="T17" s="13">
+        <f t="shared" ref="T17:Y17" si="19">+T13*T34</f>
+        <v>2390.2021124999997</v>
+      </c>
+      <c r="U17" s="13">
+        <f t="shared" si="19"/>
+        <v>2987.7526406249999</v>
+      </c>
+      <c r="V17" s="13">
+        <f t="shared" si="19"/>
+        <v>3548.213825625</v>
+      </c>
+      <c r="W17" s="13">
+        <f t="shared" si="19"/>
+        <v>3801.6576703124997</v>
+      </c>
+      <c r="X17" s="13">
+        <f t="shared" si="19"/>
+        <v>4371.9063208593743</v>
+      </c>
+      <c r="Y17" s="13">
+        <f t="shared" si="19"/>
+        <v>4809.0969529453123</v>
+      </c>
+      <c r="Z17" s="13">
+        <f>+Y17*(1+$AC$18)</f>
+        <v>4857.1879224747654</v>
+      </c>
+      <c r="AA17" s="13">
+        <f t="shared" ref="AA17:CH17" si="20">+Z17*(1+$AC$18)</f>
+        <v>4905.7598016995134</v>
+      </c>
+      <c r="AB17" s="13">
+        <f t="shared" si="20"/>
+        <v>4954.8173997165086</v>
+      </c>
+      <c r="AC17" s="13">
+        <f t="shared" si="20"/>
+        <v>5004.3655737136742</v>
+      </c>
+      <c r="AD17" s="13">
+        <f t="shared" si="20"/>
+        <v>5054.4092294508109</v>
+      </c>
+      <c r="AE17" s="13">
+        <f t="shared" si="20"/>
+        <v>5104.953321745319</v>
+      </c>
+      <c r="AF17" s="13">
+        <f t="shared" si="20"/>
+        <v>5156.0028549627723</v>
+      </c>
+      <c r="AG17" s="13">
+        <f t="shared" si="20"/>
+        <v>5207.5628835123998</v>
+      </c>
+      <c r="AH17" s="13">
+        <f t="shared" si="20"/>
+        <v>5259.6385123475238</v>
+      </c>
+      <c r="AI17" s="13">
+        <f t="shared" si="20"/>
+        <v>5312.2348974709994</v>
+      </c>
+      <c r="AJ17" s="13">
+        <f t="shared" si="20"/>
+        <v>5365.3572464457093</v>
+      </c>
+      <c r="AK17" s="13">
+        <f t="shared" si="20"/>
+        <v>5419.0108189101666</v>
+      </c>
+      <c r="AL17" s="13">
+        <f t="shared" si="20"/>
+        <v>5473.2009270992685</v>
+      </c>
+      <c r="AM17" s="13">
+        <f t="shared" si="20"/>
+        <v>5527.9329363702609</v>
+      </c>
+      <c r="AN17" s="13">
+        <f t="shared" si="20"/>
+        <v>5583.2122657339632</v>
+      </c>
+      <c r="AO17" s="13">
+        <f t="shared" si="20"/>
+        <v>5639.0443883913031</v>
+      </c>
+      <c r="AP17" s="13">
+        <f t="shared" si="20"/>
+        <v>5695.4348322752157</v>
+      </c>
+      <c r="AQ17" s="13">
+        <f t="shared" si="20"/>
+        <v>5752.3891805979683</v>
+      </c>
+      <c r="AR17" s="13">
+        <f t="shared" si="20"/>
+        <v>5809.9130724039478</v>
+      </c>
+      <c r="AS17" s="13">
+        <f t="shared" si="20"/>
+        <v>5868.012203127987</v>
+      </c>
+      <c r="AT17" s="13">
+        <f t="shared" si="20"/>
+        <v>5926.6923251592671</v>
+      </c>
+      <c r="AU17" s="13">
+        <f t="shared" si="20"/>
+        <v>5985.9592484108598</v>
+      </c>
+      <c r="AV17" s="13">
+        <f t="shared" si="20"/>
+        <v>6045.8188408949682</v>
+      </c>
+      <c r="AW17" s="13">
+        <f t="shared" si="20"/>
+        <v>6106.2770293039175</v>
+      </c>
+      <c r="AX17" s="13">
+        <f t="shared" si="20"/>
+        <v>6167.3397995969572</v>
+      </c>
+      <c r="AY17" s="13">
+        <f t="shared" si="20"/>
+        <v>6229.0131975929271</v>
+      </c>
+      <c r="AZ17" s="13">
+        <f t="shared" si="20"/>
+        <v>6291.3033295688565</v>
+      </c>
+      <c r="BA17" s="13">
+        <f t="shared" si="20"/>
+        <v>6354.2163628645449</v>
+      </c>
+      <c r="BB17" s="13">
+        <f t="shared" si="20"/>
+        <v>6417.7585264931904</v>
+      </c>
+      <c r="BC17" s="13">
+        <f t="shared" si="20"/>
+        <v>6481.936111758122</v>
+      </c>
+      <c r="BD17" s="13">
+        <f t="shared" si="20"/>
+        <v>6546.7554728757032</v>
+      </c>
+      <c r="BE17" s="13">
+        <f t="shared" si="20"/>
+        <v>6612.2230276044602</v>
+      </c>
+      <c r="BF17" s="13">
+        <f t="shared" si="20"/>
+        <v>6678.3452578805045</v>
+      </c>
+      <c r="BG17" s="13">
+        <f t="shared" si="20"/>
+        <v>6745.1287104593093</v>
+      </c>
+      <c r="BH17" s="13">
+        <f t="shared" si="20"/>
+        <v>6812.5799975639029</v>
+      </c>
+      <c r="BI17" s="13">
+        <f t="shared" si="20"/>
+        <v>6880.7057975395419</v>
+      </c>
+      <c r="BJ17" s="13">
+        <f t="shared" si="20"/>
+        <v>6949.5128555149377</v>
+      </c>
+      <c r="BK17" s="13">
+        <f t="shared" si="20"/>
+        <v>7019.0079840700873</v>
+      </c>
+      <c r="BL17" s="13">
+        <f t="shared" si="20"/>
+        <v>7089.1980639107878</v>
+      </c>
+      <c r="BM17" s="13">
+        <f t="shared" si="20"/>
+        <v>7160.0900445498955</v>
+      </c>
+      <c r="BN17" s="13">
+        <f t="shared" si="20"/>
+        <v>7231.6909449953946</v>
+      </c>
+      <c r="BO17" s="13">
+        <f t="shared" si="20"/>
+        <v>7304.007854445349</v>
+      </c>
+      <c r="BP17" s="13">
+        <f t="shared" si="20"/>
+        <v>7377.0479329898026</v>
+      </c>
+      <c r="BQ17" s="13">
+        <f t="shared" si="20"/>
+        <v>7450.8184123197007</v>
+      </c>
+      <c r="BR17" s="13">
+        <f t="shared" si="20"/>
+        <v>7525.3265964428974</v>
+      </c>
+      <c r="BS17" s="13">
+        <f t="shared" si="20"/>
+        <v>7600.5798624073268</v>
+      </c>
+      <c r="BT17" s="13">
+        <f t="shared" si="20"/>
+        <v>7676.5856610314004</v>
+      </c>
+      <c r="BU17" s="13">
+        <f t="shared" si="20"/>
+        <v>7753.3515176417141</v>
+      </c>
+      <c r="BV17" s="13">
+        <f t="shared" si="20"/>
+        <v>7830.8850328181315</v>
+      </c>
+      <c r="BW17" s="13">
+        <f t="shared" si="20"/>
+        <v>7909.1938831463131</v>
+      </c>
+      <c r="BX17" s="13">
+        <f t="shared" si="20"/>
+        <v>7988.2858219777763</v>
+      </c>
+      <c r="BY17" s="13">
+        <f t="shared" si="20"/>
+        <v>8068.1686801975538</v>
+      </c>
+      <c r="BZ17" s="13">
+        <f t="shared" si="20"/>
+        <v>8148.8503669995298</v>
+      </c>
+      <c r="CA17" s="13">
+        <f t="shared" si="20"/>
+        <v>8230.3388706695259</v>
+      </c>
+      <c r="CB17" s="13">
+        <f t="shared" si="20"/>
+        <v>8312.6422593762218</v>
+      </c>
+      <c r="CC17" s="13">
+        <f t="shared" si="20"/>
+        <v>8395.7686819699848</v>
+      </c>
+      <c r="CD17" s="13">
+        <f t="shared" si="20"/>
+        <v>8479.7263687896848</v>
+      </c>
+      <c r="CE17" s="13">
+        <f t="shared" si="20"/>
+        <v>8564.5236324775815</v>
+      </c>
+      <c r="CF17" s="13">
+        <f t="shared" si="20"/>
+        <v>8650.1688688023569</v>
+      </c>
+      <c r="CG17" s="13">
+        <f t="shared" si="20"/>
+        <v>8736.6705574903808</v>
+      </c>
+      <c r="CH17" s="13">
+        <f t="shared" si="20"/>
+        <v>8824.0372630652855</v>
+      </c>
+    </row>
+    <row r="18" spans="2:86" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="12">
         <v>64</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="12">
         <v>71</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="12">
         <v>74</v>
       </c>
-      <c r="F18" s="15">
-        <f t="shared" ref="F18:F20" si="18">+R18-SUM(C18:E18)</f>
+      <c r="F18" s="12">
+        <f t="shared" ref="F18:F20" si="21">+R18-SUM(C18:E18)</f>
         <v>85</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="12">
         <v>82</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="12">
         <v>87</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="12">
         <v>85</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M18" s="12">
         <v>276</v>
       </c>
-      <c r="N18" s="15">
+      <c r="N18" s="12">
         <v>301</v>
       </c>
-      <c r="O18" s="15">
+      <c r="O18" s="12">
         <v>335</v>
       </c>
-      <c r="P18" s="15">
+      <c r="P18" s="12">
         <v>335</v>
       </c>
-      <c r="Q18" s="15">
+      <c r="Q18" s="12">
         <v>297</v>
       </c>
-      <c r="R18" s="15">
+      <c r="R18" s="12">
         <v>294</v>
       </c>
-    </row>
-    <row r="19" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="15" t="s">
+      <c r="AB18" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC18" s="46">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="2:86" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="12">
         <v>71</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="12">
         <v>77</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="12">
         <v>72</v>
       </c>
-      <c r="F19" s="15">
-        <f t="shared" si="18"/>
+      <c r="F19" s="12">
+        <f t="shared" si="21"/>
         <v>71</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="12">
         <v>69</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="12">
         <v>71</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="12">
         <v>57</v>
       </c>
-      <c r="M19" s="15">
+      <c r="M19" s="12">
         <v>219</v>
       </c>
-      <c r="N19" s="15">
+      <c r="N19" s="12">
         <v>241</v>
       </c>
-      <c r="O19" s="15">
+      <c r="O19" s="12">
         <v>263</v>
       </c>
-      <c r="P19" s="15">
+      <c r="P19" s="12">
         <v>246</v>
       </c>
-      <c r="Q19" s="15">
+      <c r="Q19" s="12">
         <v>219</v>
       </c>
-      <c r="R19" s="15">
+      <c r="R19" s="12">
         <v>291</v>
       </c>
-    </row>
-    <row r="20" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="15" t="s">
+      <c r="AB19" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC19" s="48">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:86" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="12">
         <v>241</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="12">
         <v>-270</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="12">
         <v>75</v>
       </c>
-      <c r="F20" s="15">
-        <f t="shared" si="18"/>
+      <c r="F20" s="12">
+        <f t="shared" si="21"/>
         <v>-140</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="12">
         <v>105</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="12">
         <v>-25</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="12">
         <v>254</v>
       </c>
-      <c r="M20" s="15">
+      <c r="M20" s="12">
         <v>-156</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N20" s="12">
         <v>521</v>
       </c>
-      <c r="O20" s="15">
+      <c r="O20" s="12">
         <v>-42</v>
       </c>
-      <c r="P20" s="15">
+      <c r="P20" s="12">
         <v>58</v>
       </c>
-      <c r="Q20" s="15">
+      <c r="Q20" s="12">
         <v>292</v>
       </c>
-      <c r="R20" s="15">
+      <c r="R20" s="12">
         <v>-94</v>
       </c>
-    </row>
-    <row r="21" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="15" t="s">
+      <c r="AB20" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC20" s="49">
+        <f>+NPV(AC19,S17:CH17)</f>
+        <v>66622.41474212952</v>
+      </c>
+    </row>
+    <row r="21" spans="2:86" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="15">
-        <f t="shared" ref="C21:F21" si="19">+C17+C18-C19+C20</f>
+      <c r="C21" s="12">
+        <f t="shared" ref="C21:F21" si="22">+C17+C18-C19+C20</f>
         <v>560</v>
       </c>
-      <c r="D21" s="15">
-        <f t="shared" si="19"/>
+      <c r="D21" s="12">
+        <f t="shared" si="22"/>
         <v>135</v>
       </c>
-      <c r="E21" s="15">
-        <f t="shared" si="19"/>
+      <c r="E21" s="12">
+        <f t="shared" si="22"/>
         <v>613</v>
       </c>
-      <c r="F21" s="15">
-        <f t="shared" si="19"/>
+      <c r="F21" s="12">
+        <f t="shared" si="22"/>
         <v>196</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="12">
         <f>+G17+G18-G19+G20</f>
         <v>577</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="12">
         <f>+H17+H18-H19+H20</f>
         <v>480</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="12">
         <f>+I17+I18-I19+I20</f>
         <v>994</v>
       </c>
-      <c r="M21" s="15">
-        <f t="shared" ref="M21" si="20">+M17+M18-M19+M20</f>
+      <c r="M21" s="12">
+        <f t="shared" ref="M21" si="23">+M17+M18-M19+M20</f>
         <v>280</v>
       </c>
-      <c r="N21" s="15">
-        <f t="shared" ref="N21" si="21">+N17+N18-N19+N20</f>
+      <c r="N21" s="12">
+        <f t="shared" ref="N21" si="24">+N17+N18-N19+N20</f>
         <v>1304</v>
       </c>
-      <c r="O21" s="15">
-        <f t="shared" ref="O21:Q21" si="22">+O17+O18-O19+O20</f>
+      <c r="O21" s="12">
+        <f t="shared" ref="O21:Q21" si="25">+O17+O18-O19+O20</f>
         <v>-188</v>
       </c>
-      <c r="P21" s="15">
-        <f t="shared" si="22"/>
+      <c r="P21" s="12">
+        <f t="shared" si="25"/>
         <v>-74</v>
       </c>
-      <c r="Q21" s="15">
-        <f t="shared" si="22"/>
+      <c r="Q21" s="12">
+        <f t="shared" si="25"/>
         <v>385</v>
       </c>
-      <c r="R21" s="15">
+      <c r="R21" s="12">
         <f>+R17+R18-R19+R20</f>
         <v>1504</v>
       </c>
-    </row>
-    <row r="22" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="15" t="s">
+      <c r="AB21" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC21" s="49">
+        <f>+Main!C11</f>
+        <v>11016</v>
+      </c>
+    </row>
+    <row r="22" spans="2:86" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="12">
         <v>50</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="12">
         <v>77</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="12">
         <v>61</v>
       </c>
-      <c r="F22" s="15">
-        <f t="shared" ref="F22:F23" si="23">+R22-SUM(C22:E22)</f>
+      <c r="F22" s="12">
+        <f t="shared" ref="F22:F23" si="26">+R22-SUM(C22:E22)</f>
         <v>58</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="12">
         <v>92</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="12">
         <v>95</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="12">
         <v>103</v>
       </c>
-      <c r="M22" s="15">
+      <c r="M22" s="12">
         <v>115</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N22" s="12">
         <v>250</v>
       </c>
-      <c r="O22" s="15">
+      <c r="O22" s="12">
         <v>54</v>
       </c>
-      <c r="P22" s="15">
+      <c r="P22" s="12">
         <v>42</v>
       </c>
-      <c r="Q22" s="15">
+      <c r="Q22" s="12">
         <v>99</v>
       </c>
-      <c r="R22" s="15">
+      <c r="R22" s="12">
         <v>246</v>
       </c>
-    </row>
-    <row r="23" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="15" t="s">
+      <c r="AB22" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC22" s="49">
+        <f>+AC20-AC21</f>
+        <v>55606.41474212952</v>
+      </c>
+    </row>
+    <row r="23" spans="2:86" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="12">
         <v>-19</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="12">
         <v>33</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="12">
         <v>85</v>
       </c>
-      <c r="F23" s="15">
-        <f t="shared" si="23"/>
+      <c r="F23" s="12">
+        <f t="shared" si="26"/>
         <v>52</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="12">
         <v>114</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="12">
         <v>150</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="12">
         <v>79</v>
       </c>
-      <c r="M23" s="15">
+      <c r="M23" s="12">
         <v>-5</v>
       </c>
-      <c r="N23" s="15">
+      <c r="N23" s="12">
         <v>50</v>
       </c>
-      <c r="O23" s="15">
+      <c r="O23" s="12">
         <v>-259</v>
       </c>
-      <c r="P23" s="15">
+      <c r="P23" s="12">
         <v>15</v>
       </c>
-      <c r="Q23" s="15">
+      <c r="Q23" s="12">
         <v>-85</v>
       </c>
-      <c r="R23" s="15">
+      <c r="R23" s="12">
         <v>151</v>
       </c>
-    </row>
-    <row r="24" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="15" t="s">
+      <c r="AB23" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC23" s="51">
+        <f>+AC22/Main!C7</f>
+        <v>85.191861280962613</v>
+      </c>
+    </row>
+    <row r="24" spans="2:86" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="15">
-        <f t="shared" ref="C24:F24" si="24">+C21-C22+C23</f>
+      <c r="C24" s="12">
+        <f t="shared" ref="C24:F24" si="27">+C21-C22+C23</f>
         <v>491</v>
       </c>
-      <c r="D24" s="15">
-        <f t="shared" si="24"/>
+      <c r="D24" s="12">
+        <f t="shared" si="27"/>
         <v>91</v>
       </c>
-      <c r="E24" s="15">
-        <f t="shared" si="24"/>
+      <c r="E24" s="12">
+        <f t="shared" si="27"/>
         <v>637</v>
       </c>
-      <c r="F24" s="15">
-        <f t="shared" si="24"/>
+      <c r="F24" s="12">
+        <f t="shared" si="27"/>
         <v>190</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="12">
         <f>+G21-G22+G23</f>
         <v>599</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="12">
         <f>+H21-H22+H23</f>
         <v>535</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="12">
         <f>+I21-I22+I23</f>
         <v>970</v>
       </c>
-      <c r="M24" s="15">
-        <f t="shared" ref="M24" si="25">+M21-M22+M23</f>
+      <c r="M24" s="12">
+        <f t="shared" ref="M24" si="28">+M21-M22+M23</f>
         <v>160</v>
       </c>
-      <c r="N24" s="15">
-        <f t="shared" ref="N24" si="26">+N21-N22+N23</f>
+      <c r="N24" s="12">
+        <f t="shared" ref="N24" si="29">+N21-N22+N23</f>
         <v>1104</v>
       </c>
-      <c r="O24" s="15">
-        <f t="shared" ref="O24:Q24" si="27">+O21-O22+O23</f>
+      <c r="O24" s="12">
+        <f t="shared" ref="O24:Q24" si="30">+O21-O22+O23</f>
         <v>-501</v>
       </c>
-      <c r="P24" s="15">
-        <f t="shared" si="27"/>
+      <c r="P24" s="12">
+        <f t="shared" si="30"/>
         <v>-101</v>
       </c>
-      <c r="Q24" s="15">
-        <f t="shared" si="27"/>
+      <c r="Q24" s="12">
+        <f t="shared" si="30"/>
         <v>201</v>
       </c>
-      <c r="R24" s="15">
+      <c r="R24" s="12">
         <f>+R21-R22+R23</f>
         <v>1409</v>
       </c>
-    </row>
-    <row r="25" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="15" t="s">
+      <c r="AB24" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC24" s="53">
+        <f>+AC23/Main!C6-1</f>
+        <v>0.38929975996351285</v>
+      </c>
+    </row>
+    <row r="25" spans="2:86" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="12">
         <v>0</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="12">
         <v>-2</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="12">
         <v>-3</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="12">
         <f>+R25-SUM(C25:E25)</f>
         <v>-7</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="12">
         <v>-2</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="12">
         <v>-8</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="12">
         <v>-8</v>
       </c>
-      <c r="M25" s="15">
+      <c r="M25" s="12">
         <v>2</v>
       </c>
-      <c r="N25" s="15">
+      <c r="N25" s="12">
         <f>8-6</f>
         <v>2</v>
       </c>
-      <c r="O25" s="15">
+      <c r="O25" s="12">
         <f>10-6</f>
         <v>4</v>
       </c>
-      <c r="P25" s="15">
+      <c r="P25" s="12">
         <v>15</v>
       </c>
-      <c r="Q25" s="15">
+      <c r="Q25" s="12">
         <v>5</v>
       </c>
-      <c r="R25" s="15">
+      <c r="R25" s="12">
         <v>-12</v>
       </c>
     </row>
-    <row r="26" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="16" t="s">
+    <row r="26" spans="2:86" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="16">
-        <f t="shared" ref="C26:F26" si="28">+C24+C25</f>
+      <c r="C26" s="13">
+        <f t="shared" ref="C26:F26" si="31">+C24+C25</f>
         <v>491</v>
       </c>
-      <c r="D26" s="16">
-        <f t="shared" si="28"/>
+      <c r="D26" s="13">
+        <f t="shared" si="31"/>
         <v>89</v>
       </c>
-      <c r="E26" s="16">
-        <f t="shared" si="28"/>
+      <c r="E26" s="13">
+        <f t="shared" si="31"/>
         <v>634</v>
       </c>
-      <c r="F26" s="16">
-        <f t="shared" si="28"/>
+      <c r="F26" s="13">
+        <f t="shared" si="31"/>
         <v>183</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="13">
         <f>+G24+G25</f>
         <v>597</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H26" s="13">
         <f>+H24+H25</f>
         <v>527</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="13">
         <f>+I24+I25</f>
         <v>962</v>
       </c>
-      <c r="M26" s="16">
-        <f t="shared" ref="M26" si="29">+M24+M25</f>
+      <c r="M26" s="13">
+        <f t="shared" ref="M26" si="32">+M24+M25</f>
         <v>162</v>
       </c>
-      <c r="N26" s="16">
-        <f t="shared" ref="N26" si="30">+N24+N25</f>
+      <c r="N26" s="13">
+        <f t="shared" ref="N26" si="33">+N24+N25</f>
         <v>1106</v>
       </c>
-      <c r="O26" s="16">
-        <f t="shared" ref="O26:Q26" si="31">+O24+O25</f>
+      <c r="O26" s="13">
+        <f t="shared" ref="O26:Q26" si="34">+O24+O25</f>
         <v>-497</v>
       </c>
-      <c r="P26" s="16">
-        <f t="shared" si="31"/>
+      <c r="P26" s="13">
+        <f t="shared" si="34"/>
         <v>-86</v>
       </c>
-      <c r="Q26" s="16">
-        <f t="shared" si="31"/>
+      <c r="Q26" s="13">
+        <f t="shared" si="34"/>
         <v>206</v>
       </c>
-      <c r="R26" s="16">
+      <c r="R26" s="13">
         <f>+R24+R25</f>
         <v>1397</v>
       </c>
-    </row>
-    <row r="27" spans="2:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="17" t="s">
+      <c r="S26" s="13">
+        <f>+S11*S35</f>
+        <v>2412.3150000000001</v>
+      </c>
+      <c r="T26" s="13">
+        <f t="shared" ref="T26:Y26" si="35">+T11*T35</f>
+        <v>2814.3675000000003</v>
+      </c>
+      <c r="U26" s="13">
+        <f t="shared" si="35"/>
+        <v>3141.03515625</v>
+      </c>
+      <c r="V26" s="13">
+        <f t="shared" si="35"/>
+        <v>3554.3953828125004</v>
+      </c>
+      <c r="W26" s="13">
+        <f t="shared" si="35"/>
+        <v>3708.9343125</v>
+      </c>
+      <c r="X26" s="13">
+        <f t="shared" si="35"/>
+        <v>3838.7470134374994</v>
+      </c>
+      <c r="Y26" s="13">
+        <f t="shared" si="35"/>
+        <v>4222.6217147812495</v>
+      </c>
+    </row>
+    <row r="27" spans="2:86" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="17">
-        <f>+C26/C28</f>
+      <c r="C27" s="14">
+        <f t="shared" ref="C27:I27" si="36">+C26/C28</f>
         <v>0.75324139100164145</v>
       </c>
-      <c r="D27" s="17">
-        <f>+D26/D28</f>
+      <c r="D27" s="14">
+        <f t="shared" si="36"/>
         <v>0.13621205919458979</v>
       </c>
-      <c r="E27" s="17">
-        <f>+E26/E28</f>
+      <c r="E27" s="14">
+        <f t="shared" si="36"/>
         <v>0.96920255094906338</v>
       </c>
-      <c r="F27" s="17">
-        <f>+F26/F28</f>
+      <c r="F27" s="14">
+        <f t="shared" si="36"/>
         <v>0.28030545777196675</v>
       </c>
-      <c r="G27" s="17">
-        <f>+G26/G28</f>
+      <c r="G27" s="14">
+        <f t="shared" si="36"/>
         <v>0.91655833046993296</v>
       </c>
-      <c r="H27" s="17">
-        <f>+H26/H28</f>
+      <c r="H27" s="14">
+        <f t="shared" si="36"/>
         <v>0.80352812090516557</v>
       </c>
-      <c r="I27" s="17">
-        <f>+I26/I28</f>
+      <c r="I27" s="14">
+        <f t="shared" si="36"/>
         <v>1.4738330268610926</v>
       </c>
-      <c r="M27" s="17">
-        <f>+M26/M28</f>
+      <c r="M27" s="14">
+        <f t="shared" ref="M27:R27" si="37">+M26/M28</f>
         <v>0.31442426680841484</v>
       </c>
-      <c r="N27" s="17">
-        <f>+N26/N28</f>
+      <c r="N27" s="14">
+        <f t="shared" si="37"/>
         <v>1.9476221090737127</v>
       </c>
-      <c r="O27" s="17">
-        <f>+O26/O28</f>
+      <c r="O27" s="14">
+        <f t="shared" si="37"/>
         <v>-0.82710892539265812</v>
       </c>
-      <c r="P27" s="17">
-        <f>+P26/P28</f>
+      <c r="P27" s="14">
+        <f t="shared" si="37"/>
         <v>-0.13562332091133578</v>
       </c>
-      <c r="Q27" s="17">
-        <f>+Q26/Q28</f>
+      <c r="Q27" s="14">
+        <f t="shared" si="37"/>
         <v>0.31771463115513682</v>
       </c>
-      <c r="R27" s="17">
-        <f>+R26/R28</f>
+      <c r="R27" s="14">
+        <f t="shared" si="37"/>
         <v>2.1398181667073088</v>
       </c>
     </row>
-    <row r="28" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="15" t="s">
+    <row r="28" spans="2:86" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="12">
         <v>651.849468</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="12">
         <v>653.39295600000003</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="12">
         <v>654.146029</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="12">
         <f>+R28</f>
         <v>652.85921099999996</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="12">
         <v>651.34970699999997</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="12">
         <v>655.85756900000001</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I28" s="12">
         <v>652.71980099999996</v>
       </c>
-      <c r="M28" s="15">
+      <c r="M28" s="12">
         <f>64.403426/0.125</f>
         <v>515.22740799999997</v>
       </c>
-      <c r="N28" s="15">
+      <c r="N28" s="12">
         <f>70.983996/0.125</f>
         <v>567.87196800000004</v>
       </c>
-      <c r="O28" s="15">
+      <c r="O28" s="12">
         <f>75.111026/0.125</f>
         <v>600.88820799999996</v>
       </c>
-      <c r="P28" s="15">
+      <c r="P28" s="12">
         <v>634.10923300000002</v>
       </c>
-      <c r="Q28" s="15">
+      <c r="Q28" s="12">
         <v>648.38058999999998</v>
       </c>
-      <c r="R28" s="15">
+      <c r="R28" s="12">
         <v>652.85921099999996</v>
       </c>
     </row>
-    <row r="30" spans="2:18" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="39" t="s">
+    <row r="30" spans="2:86" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="39">
+      <c r="G30" s="28">
         <f>+G11/C11-1</f>
         <v>0.23151605675877529</v>
       </c>
-      <c r="H30" s="39">
+      <c r="H30" s="28">
         <f>+H11/D11-1</f>
         <v>0.13208762886597936</v>
       </c>
-      <c r="I30" s="39">
+      <c r="I30" s="28">
         <f>+I11/E11-1</f>
         <v>0.2007434944237918</v>
       </c>
-      <c r="N30" s="39">
-        <f>+N11/M11-1</f>
+      <c r="N30" s="28">
+        <f t="shared" ref="N30:S30" si="38">+N11/M11-1</f>
         <v>0.13721136767317943</v>
       </c>
-      <c r="O30" s="39">
-        <f>+O11/N11-1</f>
+      <c r="O30" s="28">
+        <f t="shared" si="38"/>
         <v>-0.4519718859820383</v>
       </c>
-      <c r="P30" s="39">
-        <f>+P11/O11-1</f>
+      <c r="P30" s="28">
+        <f t="shared" si="38"/>
         <v>0.11934449590309937</v>
       </c>
-      <c r="Q30" s="39">
-        <f>+Q11/P11-1</f>
+      <c r="Q30" s="28">
+        <f t="shared" si="38"/>
         <v>-7.479312539783578E-2</v>
       </c>
-      <c r="R30" s="39">
-        <f>+R11/Q11-1</f>
+      <c r="R30" s="28">
+        <f t="shared" si="38"/>
         <v>1.1565187478500172</v>
       </c>
-    </row>
-    <row r="31" spans="2:18" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="22" t="s">
+      <c r="S30" s="28">
+        <f t="shared" si="38"/>
+        <v>0.28266868719093963</v>
+      </c>
+      <c r="T30" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="U30" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="V30" s="28">
+        <v>0.23</v>
+      </c>
+      <c r="W30" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="X30" s="28">
+        <v>0.15</v>
+      </c>
+      <c r="Y30" s="28">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:86" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="22">
-        <f>+D9/C9-1</f>
+      <c r="D31" s="19">
+        <f t="shared" ref="D31:I31" si="39">+D9/C9-1</f>
         <v>0.15883668903803128</v>
       </c>
-      <c r="E31" s="22">
-        <f>+E9/D9-1</f>
+      <c r="E31" s="19">
+        <f t="shared" si="39"/>
         <v>0.21299871299871298</v>
       </c>
-      <c r="F31" s="22">
-        <f>+F9/E9-1</f>
+      <c r="F31" s="19">
+        <f t="shared" si="39"/>
         <v>-0.20636604774535805</v>
       </c>
-      <c r="G31" s="22">
-        <f>+G9/F9-1</f>
+      <c r="G31" s="19">
+        <f t="shared" si="39"/>
         <v>0.10360962566844911</v>
       </c>
-      <c r="H31" s="22">
-        <f>+H9/G9-1</f>
+      <c r="H31" s="19">
+        <f t="shared" si="39"/>
         <v>6.541490006056927E-2</v>
       </c>
-      <c r="I31" s="22">
-        <f>+I9/H9-1</f>
+      <c r="I31" s="19">
+        <f t="shared" si="39"/>
         <v>0.28766344513928366</v>
       </c>
     </row>
-    <row r="33" spans="2:18" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="22" t="s">
+    <row r="33" spans="2:25" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="22">
-        <f>+C13/C11</f>
+      <c r="C33" s="19">
+        <f t="shared" ref="C33:I33" si="40">+C13/C11</f>
         <v>0.82225541448842421</v>
       </c>
-      <c r="D33" s="22">
-        <f>+D13/D11</f>
+      <c r="D33" s="19">
+        <f t="shared" si="40"/>
         <v>0.821520618556701</v>
       </c>
-      <c r="E33" s="22">
-        <f>+E13/E11</f>
+      <c r="E33" s="19">
+        <f t="shared" si="40"/>
         <v>0.82049920339883164</v>
       </c>
-      <c r="F33" s="22">
-        <f>+F13/F11</f>
+      <c r="F33" s="19">
+        <f t="shared" si="40"/>
         <v>0.80535117056856187</v>
       </c>
-      <c r="G33" s="22">
-        <f>+G13/G11</f>
+      <c r="G33" s="19">
+        <f t="shared" si="40"/>
         <v>0.81200727713765919</v>
       </c>
-      <c r="H33" s="22">
-        <f>+H13/H11</f>
+      <c r="H33" s="19">
+        <f t="shared" si="40"/>
         <v>0.81900967558338078</v>
       </c>
-      <c r="I33" s="22">
-        <f>+I13/I11</f>
+      <c r="I33" s="19">
+        <f t="shared" si="40"/>
         <v>0.82352941176470584</v>
       </c>
-      <c r="M33" s="22">
-        <f>+M13/M11</f>
+      <c r="M33" s="19">
+        <f t="shared" ref="M33:R33" si="41">+M13/M11</f>
         <v>0.79573712255772644</v>
       </c>
-      <c r="N33" s="22">
-        <f>+N13/N11</f>
+      <c r="N33" s="19">
+        <f t="shared" si="41"/>
         <v>0.79324482623975012</v>
       </c>
-      <c r="O33" s="22">
-        <f>+O13/O11</f>
+      <c r="O33" s="19">
+        <f t="shared" si="41"/>
         <v>0.77983612397577484</v>
       </c>
-      <c r="P33" s="22">
-        <f>+P13/P11</f>
+      <c r="P33" s="19">
+        <f t="shared" si="41"/>
         <v>0.77052832590706555</v>
       </c>
-      <c r="Q33" s="22">
-        <f>+Q13/Q11</f>
+      <c r="Q33" s="19">
+        <f t="shared" si="41"/>
         <v>0.77502579979360164</v>
       </c>
-      <c r="R33" s="22">
-        <f>+R13/R11</f>
+      <c r="R33" s="19">
+        <f t="shared" si="41"/>
         <v>0.81751475514436112</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="22" t="s">
+      <c r="S33" s="19">
+        <v>0.82</v>
+      </c>
+      <c r="T33" s="19">
+        <v>0.82</v>
+      </c>
+      <c r="U33" s="19">
+        <v>0.82</v>
+      </c>
+      <c r="V33" s="19">
+        <v>0.82</v>
+      </c>
+      <c r="W33" s="19">
+        <v>0.82</v>
+      </c>
+      <c r="X33" s="19">
+        <v>0.82</v>
+      </c>
+      <c r="Y33" s="19">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="22">
-        <f>+C17/C11</f>
+      <c r="C34" s="19">
+        <f t="shared" ref="C34:I34" si="42">+C17/C11</f>
         <v>0.24346527259148618</v>
       </c>
-      <c r="D34" s="22">
-        <f>+D17/D11</f>
+      <c r="D34" s="19">
+        <f t="shared" si="42"/>
         <v>0.26481958762886598</v>
       </c>
-      <c r="E34" s="22">
-        <f>+E17/E11</f>
+      <c r="E34" s="19">
+        <f t="shared" si="42"/>
         <v>0.28465215082315454</v>
       </c>
-      <c r="F34" s="22">
-        <f>+F17/F11</f>
+      <c r="F34" s="19">
+        <f t="shared" si="42"/>
         <v>0.2153846153846154</v>
       </c>
-      <c r="G34" s="22">
-        <f>+G17/G11</f>
+      <c r="G34" s="19">
+        <f t="shared" si="42"/>
         <v>0.27835051546391754</v>
       </c>
-      <c r="H34" s="22">
-        <f>+H17/H11</f>
+      <c r="H34" s="19">
+        <f t="shared" si="42"/>
         <v>0.27831531018782013</v>
       </c>
-      <c r="I34" s="22">
-        <f>+I17/I11</f>
+      <c r="I34" s="19">
+        <f t="shared" si="42"/>
         <v>0.31490490933215393</v>
       </c>
-      <c r="M34" s="22">
-        <f>+M17/M11</f>
+      <c r="M34" s="19">
+        <f t="shared" ref="M34:R34" si="43">+M17/M11</f>
         <v>8.4147424511545291E-2</v>
       </c>
-      <c r="N34" s="22">
-        <f>+N17/N11</f>
+      <c r="N34" s="19">
+        <f t="shared" si="43"/>
         <v>0.14115579851620461</v>
       </c>
-      <c r="O34" s="22">
-        <f>+O17/O11</f>
+      <c r="O34" s="19">
+        <f t="shared" si="43"/>
         <v>-7.7662985393658707E-2</v>
       </c>
-      <c r="P34" s="22">
-        <f>+P17/P11</f>
+      <c r="P34" s="19">
+        <f t="shared" si="43"/>
         <v>-7.0337364735837044E-2</v>
       </c>
-      <c r="Q34" s="22">
-        <f>+Q17/Q11</f>
+      <c r="Q34" s="19">
+        <f t="shared" si="43"/>
         <v>5.1599587203302374E-3</v>
       </c>
-      <c r="R34" s="22">
-        <f>+R17/R11</f>
+      <c r="R34" s="19">
+        <f t="shared" si="43"/>
         <v>0.25442654330834263</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="22" t="s">
+      <c r="S34" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="T34" s="19">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="U34" s="19">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="V34" s="19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="W34" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="X34" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="Y34" s="19">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="22">
-        <f>+C26/C11</f>
+      <c r="C35" s="19">
+        <f t="shared" ref="C35:I35" si="44">+C26/C11</f>
         <v>0.36669156086631816</v>
       </c>
-      <c r="D35" s="22">
-        <f>+D26/D11</f>
+      <c r="D35" s="19">
+        <f t="shared" si="44"/>
         <v>5.7345360824742266E-2</v>
       </c>
-      <c r="E35" s="22">
-        <f>+E26/E11</f>
+      <c r="E35" s="19">
+        <f t="shared" si="44"/>
         <v>0.33669676048858205</v>
       </c>
-      <c r="F35" s="22">
-        <f>+F26/F11</f>
+      <c r="F35" s="19">
+        <f t="shared" si="44"/>
         <v>0.12240802675585284</v>
       </c>
-      <c r="G35" s="22">
-        <f>+G26/G11</f>
+      <c r="G35" s="19">
+        <f t="shared" si="44"/>
         <v>0.36203759854457246</v>
       </c>
-      <c r="H35" s="22">
-        <f>+H26/H11</f>
+      <c r="H35" s="19">
+        <f t="shared" si="44"/>
         <v>0.29994308480364257</v>
       </c>
-      <c r="I35" s="22">
-        <f>+I26/I11</f>
+      <c r="I35" s="19">
+        <f t="shared" si="44"/>
         <v>0.42547545333923042</v>
       </c>
-      <c r="M35" s="22">
-        <f>+M26/M11</f>
+      <c r="M35" s="19">
+        <f t="shared" ref="M35:R35" si="45">+M26/M11</f>
         <v>3.5968028419182951E-2</v>
       </c>
-      <c r="N35" s="22">
-        <f>+N26/N11</f>
+      <c r="N35" s="19">
+        <f t="shared" si="45"/>
         <v>0.21593127684498242</v>
       </c>
-      <c r="O35" s="22">
-        <f>+O26/O11</f>
+      <c r="O35" s="19">
+        <f t="shared" si="45"/>
         <v>-0.17705735660847879</v>
       </c>
-      <c r="P35" s="22">
-        <f>+P26/P11</f>
+      <c r="P35" s="19">
+        <f t="shared" si="45"/>
         <v>-2.737110120942075E-2</v>
       </c>
-      <c r="Q35" s="22">
-        <f>+Q26/Q11</f>
+      <c r="Q35" s="19">
+        <f t="shared" si="45"/>
         <v>7.0863433092535261E-2</v>
       </c>
-      <c r="R35" s="22">
-        <f>+R26/R11</f>
+      <c r="R35" s="19">
+        <f t="shared" si="45"/>
         <v>0.22284255862178975</v>
       </c>
-    </row>
-    <row r="36" spans="2:18" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="22" t="s">
+      <c r="S35" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="T35" s="19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="U35" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="V35" s="19">
+        <v>0.23</v>
+      </c>
+      <c r="W35" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="X35" s="19">
+        <v>0.18</v>
+      </c>
+      <c r="Y35" s="19">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="22">
-        <f>+C22/C21</f>
+      <c r="C36" s="19">
+        <f t="shared" ref="C36:I36" si="46">+C22/C21</f>
         <v>8.9285714285714288E-2</v>
       </c>
-      <c r="D36" s="22">
-        <f>+D22/D21</f>
+      <c r="D36" s="19">
+        <f t="shared" si="46"/>
         <v>0.57037037037037042</v>
       </c>
-      <c r="E36" s="22">
-        <f>+E22/E21</f>
+      <c r="E36" s="19">
+        <f t="shared" si="46"/>
         <v>9.951060358890701E-2</v>
       </c>
-      <c r="F36" s="22">
-        <f>+F22/F21</f>
+      <c r="F36" s="19">
+        <f t="shared" si="46"/>
         <v>0.29591836734693877</v>
       </c>
-      <c r="G36" s="22">
-        <f>+G22/G21</f>
+      <c r="G36" s="19">
+        <f t="shared" si="46"/>
         <v>0.15944540727902945</v>
       </c>
-      <c r="H36" s="22">
-        <f>+H22/H21</f>
+      <c r="H36" s="19">
+        <f t="shared" si="46"/>
         <v>0.19791666666666666</v>
       </c>
-      <c r="I36" s="22">
-        <f>+I22/I21</f>
+      <c r="I36" s="19">
+        <f t="shared" si="46"/>
         <v>0.10362173038229376</v>
       </c>
-      <c r="M36" s="22">
-        <f>+M22/M21</f>
+      <c r="M36" s="19">
+        <f t="shared" ref="M36:R36" si="47">+M22/M21</f>
         <v>0.4107142857142857</v>
       </c>
-      <c r="N36" s="22">
-        <f>+N22/N21</f>
+      <c r="N36" s="19">
+        <f t="shared" si="47"/>
         <v>0.19171779141104295</v>
       </c>
-      <c r="O36" s="22">
-        <f>+O22/O21</f>
+      <c r="O36" s="19">
+        <f t="shared" si="47"/>
         <v>-0.28723404255319152</v>
       </c>
-      <c r="P36" s="22">
-        <f>+P22/P21</f>
+      <c r="P36" s="19">
+        <f t="shared" si="47"/>
         <v>-0.56756756756756754</v>
       </c>
-      <c r="Q36" s="22">
-        <f>+Q22/Q21</f>
+      <c r="Q36" s="19">
+        <f t="shared" si="47"/>
         <v>0.25714285714285712</v>
       </c>
-      <c r="R36" s="22">
-        <f>+R22/R21</f>
+      <c r="R36" s="19">
+        <f t="shared" si="47"/>
         <v>0.16356382978723405</v>
       </c>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B40" s="23" t="s">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B40" s="20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="16" t="s">
+    <row r="41" spans="2:25" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="13">
         <v>5175</v>
       </c>
-      <c r="I41" s="16">
+      <c r="I41" s="13">
         <v>5982</v>
       </c>
     </row>
-    <row r="42" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="16" t="s">
+    <row r="42" spans="2:25" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="13">
         <v>3300</v>
       </c>
-      <c r="I42" s="16">
+      <c r="I42" s="13">
         <v>4890</v>
       </c>
     </row>
-    <row r="43" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="15" t="s">
+    <row r="43" spans="2:25" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="12">
         <v>1761</v>
       </c>
-      <c r="I43" s="15">
+      <c r="I43" s="12">
         <v>1972</v>
       </c>
     </row>
-    <row r="44" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="15" t="s">
+    <row r="44" spans="2:25" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="12">
         <v>2594</v>
       </c>
-      <c r="I44" s="15">
+      <c r="I44" s="12">
         <v>3486</v>
       </c>
     </row>
-    <row r="45" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="15" t="s">
+    <row r="45" spans="2:25" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="12">
         <v>708</v>
       </c>
-      <c r="I45" s="15">
+      <c r="I45" s="12">
         <v>721</v>
       </c>
     </row>
-    <row r="46" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="15" t="s">
+    <row r="46" spans="2:25" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E46" s="12">
         <v>1739</v>
       </c>
-      <c r="I46" s="15">
+      <c r="I46" s="12">
         <v>1838</v>
       </c>
     </row>
-    <row r="47" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="15" t="s">
+    <row r="47" spans="2:25" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="12">
         <v>89</v>
       </c>
-      <c r="I47" s="15">
+      <c r="I47" s="12">
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="16" t="s">
+    <row r="48" spans="2:25" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E48" s="13">
         <v>7328</v>
       </c>
-      <c r="I48" s="16">
+      <c r="I48" s="13">
         <v>6661</v>
       </c>
     </row>
-    <row r="49" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="15" t="s">
+    <row r="49" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="12">
         <v>8137</v>
       </c>
-      <c r="I49" s="15">
+      <c r="I49" s="12">
         <v>8682</v>
       </c>
     </row>
-    <row r="50" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="15" t="s">
+    <row r="50" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E50" s="12">
         <v>88</v>
       </c>
-      <c r="I50" s="15">
+      <c r="I50" s="12">
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="15" t="s">
+    <row r="51" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="12">
         <v>263</v>
       </c>
-      <c r="I51" s="15">
+      <c r="I51" s="12">
         <v>398</v>
       </c>
     </row>
-    <row r="52" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="15" t="s">
+    <row r="52" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E52" s="12">
         <f>+SUM(E41:E51)</f>
         <v>31182</v>
       </c>
-      <c r="I52" s="15">
+      <c r="I52" s="12">
         <f>+SUM(I41:I51)</f>
         <v>34812</v>
       </c>
     </row>
-    <row r="53" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="2:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="16" t="s">
+    <row r="53" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="2:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E54" s="13">
         <v>4222</v>
       </c>
-      <c r="I54" s="16">
+      <c r="I54" s="13">
         <v>3792</v>
       </c>
     </row>
-    <row r="55" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="15" t="s">
+    <row r="55" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E55" s="12">
         <v>2491</v>
       </c>
-      <c r="I55" s="15">
+      <c r="I55" s="12">
         <v>2507</v>
       </c>
     </row>
-    <row r="56" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="15" t="s">
+    <row r="56" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E56" s="12">
         <v>1965</v>
       </c>
-      <c r="I56" s="15">
+      <c r="I56" s="12">
         <v>2453</v>
       </c>
     </row>
-    <row r="57" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="15" t="s">
+    <row r="57" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E57" s="12">
         <v>2253</v>
       </c>
-      <c r="I57" s="15">
+      <c r="I57" s="12">
         <v>2711</v>
       </c>
     </row>
-    <row r="58" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="15" t="s">
+    <row r="58" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E58" s="12">
         <v>498</v>
       </c>
-      <c r="I58" s="15">
+      <c r="I58" s="12">
         <v>541</v>
       </c>
     </row>
-    <row r="59" spans="2:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="16" t="s">
+    <row r="59" spans="2:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E59" s="13">
         <v>2697</v>
       </c>
-      <c r="I59" s="16">
+      <c r="I59" s="13">
         <v>2725</v>
       </c>
     </row>
-    <row r="60" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="15" t="s">
+    <row r="60" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E60" s="12">
         <v>64</v>
       </c>
-      <c r="I60" s="15">
+      <c r="I60" s="12">
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="15" t="s">
+    <row r="61" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E61" s="12">
         <v>50</v>
       </c>
-      <c r="I61" s="15">
+      <c r="I61" s="12">
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="15" t="s">
+    <row r="62" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E62" s="12">
         <f>+SUM(E54:E61)</f>
         <v>14240</v>
       </c>
-      <c r="I62" s="15">
+      <c r="I62" s="12">
         <f>+SUM(I54:I61)</f>
         <v>14845</v>
       </c>
     </row>
-    <row r="63" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="15" t="s">
+    <row r="63" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E64" s="12">
         <v>16942</v>
       </c>
-      <c r="I64" s="15">
+      <c r="I64" s="12">
         <f>19863+104</f>
         <v>19967</v>
       </c>
     </row>
-    <row r="65" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="15" t="s">
+    <row r="65" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E65" s="15">
+      <c r="E65" s="12">
         <f>+E64+E62</f>
         <v>31182</v>
       </c>
-      <c r="I65" s="15">
+      <c r="I65" s="12">
         <f>+I64+I62</f>
         <v>34812</v>
       </c>
     </row>
-    <row r="66" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="15" t="s">
+    <row r="66" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E67" s="15">
+      <c r="E67" s="12">
         <f>+E52-E62</f>
         <v>16942</v>
       </c>
-      <c r="I67" s="15">
+      <c r="I67" s="12">
         <f>+I52-I62</f>
         <v>19967</v>
       </c>
     </row>
-    <row r="68" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="15" t="s">
+    <row r="68" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E68" s="12">
         <f>+E67/E28</f>
         <v>25.899415801544215</v>
       </c>
-      <c r="I68" s="15">
+      <c r="I68" s="12">
         <f>+I67/I28</f>
         <v>30.590461587666773</v>
       </c>
     </row>
-    <row r="69" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="15" t="s">
+    <row r="69" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="15">
+      <c r="E70" s="12">
         <f>+E42+E41+E48</f>
         <v>15803</v>
       </c>
-      <c r="I70" s="15">
+      <c r="I70" s="12">
         <f>+I42+I41+I48</f>
         <v>17533</v>
       </c>
     </row>
-    <row r="71" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="15" t="s">
+    <row r="71" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E71" s="12">
         <f>+E54+E59</f>
         <v>6919</v>
       </c>
-      <c r="I71" s="15">
+      <c r="I71" s="12">
         <f>+I54+I59</f>
         <v>6517</v>
       </c>
     </row>
-    <row r="72" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="15" t="s">
+    <row r="72" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E72" s="12">
         <f>+E70-E71</f>
         <v>8884</v>
       </c>
-      <c r="I72" s="15">
+      <c r="I72" s="12">
         <f>+I70-I71</f>
         <v>11016</v>
       </c>
@@ -3304,10 +3930,11 @@
     <hyperlink ref="M1" r:id="rId8" xr:uid="{D3365498-873C-454B-8EE4-885EF2612EA7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
   <ignoredErrors>
     <ignoredError sqref="G9:I9 E9 C9:D9" formulaRange="1"/>
     <ignoredError sqref="F9:F28" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId9"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>